--- a/Resources/StreamLine Web Automator Resources/Test File Intro.xlsx
+++ b/Resources/StreamLine Web Automator Resources/Test File Intro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\2) StreamLineQA Resources\StreamLine Web Automator Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\StreamLine Web Automator Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B2EE35-270A-415A-B91A-102CEEC38109}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F181D7-6418-420B-AB49-84104B55C6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,10 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -781,7 +784,10 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
